--- a/Results/Categorization/plsa.xlsx
+++ b/Results/Categorization/plsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="1718">
   <si>
     <t>id</t>
   </si>
@@ -4027,55 +4027,58 @@
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
@@ -4090,51 +4093,48 @@
     <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
     <t>PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
@@ -4162,130 +4162,118 @@
     <t>FOOD|SERVICE|AMBIENCE|FOOD</t>
   </si>
   <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
+    <t>FOOD|PRICES|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|PRICES|PRICES|PRICES|PRICES</t>
@@ -4303,10 +4291,10 @@
     <t>FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|PRICES|PRICES|SERVICE</t>
@@ -5586,10 +5574,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="H2" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5615,7 +5603,7 @@
         <v>937</v>
       </c>
       <c r="H3" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5638,10 +5626,10 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="H4" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5664,10 +5652,10 @@
         <v>1277</v>
       </c>
       <c r="G5" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="H5" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5690,10 +5678,10 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="H6" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5713,7 +5701,7 @@
         <v>1275</v>
       </c>
       <c r="H7" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5733,13 +5721,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G8" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="H8" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5759,7 +5747,7 @@
         <v>1276</v>
       </c>
       <c r="H9" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5779,13 +5767,13 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G10" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="H10" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5805,13 +5793,13 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G11" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="H11" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5834,10 +5822,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="H12" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5863,7 +5851,7 @@
         <v>937</v>
       </c>
       <c r="H13" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5886,10 +5874,10 @@
         <v>1277</v>
       </c>
       <c r="G14" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="H14" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5912,10 +5900,10 @@
         <v>1277</v>
       </c>
       <c r="G15" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="H15" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5935,13 +5923,13 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G16" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="H16" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5961,7 +5949,7 @@
         <v>1283</v>
       </c>
       <c r="H17" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5984,10 +5972,10 @@
         <v>1338</v>
       </c>
       <c r="G18" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="H18" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6007,13 +5995,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G19" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="H19" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6039,7 +6027,7 @@
         <v>937</v>
       </c>
       <c r="H20" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6059,13 +6047,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G21" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="H21" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6085,7 +6073,7 @@
         <v>1284</v>
       </c>
       <c r="H22" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6111,7 +6099,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6137,7 +6125,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6157,13 +6145,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G25" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="H25" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6186,10 +6174,10 @@
         <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="H26" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6215,7 +6203,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6235,13 +6223,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G28" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="H28" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6264,10 +6252,10 @@
         <v>1338</v>
       </c>
       <c r="G29" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="H29" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6290,10 +6278,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="H30" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6313,13 +6301,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G31" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H31" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6339,13 +6327,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G32" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="H32" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6365,13 +6353,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G33" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="H33" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6394,10 +6382,10 @@
         <v>1338</v>
       </c>
       <c r="G34" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="H34" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6420,10 +6408,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H35" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6443,13 +6431,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G36" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="H36" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6472,10 +6460,10 @@
         <v>1277</v>
       </c>
       <c r="G37" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H37" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6495,13 +6483,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G38" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="H38" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6524,10 +6512,10 @@
         <v>1284</v>
       </c>
       <c r="G39" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="H39" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6550,10 +6538,10 @@
         <v>1338</v>
       </c>
       <c r="G40" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="H40" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6573,13 +6561,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G41" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="H41" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6599,7 +6587,7 @@
         <v>1284</v>
       </c>
       <c r="H42" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6619,13 +6607,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G43" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H43" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6645,7 +6633,7 @@
         <v>1277</v>
       </c>
       <c r="H44" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6665,7 +6653,7 @@
         <v>1284</v>
       </c>
       <c r="H45" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6691,7 +6679,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6717,7 +6705,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6740,10 +6728,10 @@
         <v>1338</v>
       </c>
       <c r="G48" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H48" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6766,10 +6754,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H49" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6792,10 +6780,10 @@
         <v>1338</v>
       </c>
       <c r="G50" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H50" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6815,13 +6803,13 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="G51" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H51" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6844,10 +6832,10 @@
         <v>1338</v>
       </c>
       <c r="G52" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H52" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6867,13 +6855,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G53" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H53" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6893,13 +6881,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G54" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H54" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6922,10 +6910,10 @@
         <v>1338</v>
       </c>
       <c r="G55" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H55" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6945,7 +6933,7 @@
         <v>1276</v>
       </c>
       <c r="H56" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6965,13 +6953,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G57" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H57" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6991,13 +6979,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G58" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H58" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7017,13 +7005,13 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G59" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H59" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7043,13 +7031,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G60" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="H60" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7069,13 +7057,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G61" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="H61" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7095,7 +7083,7 @@
         <v>1275</v>
       </c>
       <c r="H62" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7121,7 +7109,7 @@
         <v>937</v>
       </c>
       <c r="H63" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7141,13 +7129,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G64" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="H64" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7167,13 +7155,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G65" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="H65" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7193,13 +7181,13 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1360</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="H66" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7219,13 +7207,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G67" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="H67" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7248,10 +7236,10 @@
         <v>1361</v>
       </c>
       <c r="G68" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H68" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7274,10 +7262,10 @@
         <v>1338</v>
       </c>
       <c r="G69" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H69" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7303,7 +7291,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7323,7 +7311,7 @@
         <v>1294</v>
       </c>
       <c r="H71" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7346,10 +7334,10 @@
         <v>1277</v>
       </c>
       <c r="G72" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="H72" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7375,7 +7363,7 @@
         <v>937</v>
       </c>
       <c r="H73" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7395,13 +7383,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G74" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="H74" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7424,10 +7412,10 @@
         <v>1336</v>
       </c>
       <c r="G75" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H75" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7450,10 +7438,10 @@
         <v>1362</v>
       </c>
       <c r="G76" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="H76" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7479,7 +7467,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7499,7 +7487,7 @@
         <v>1284</v>
       </c>
       <c r="H78" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7522,10 +7510,10 @@
         <v>1338</v>
       </c>
       <c r="G79" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H79" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7545,13 +7533,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="G80" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H80" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7571,7 +7559,7 @@
         <v>1277</v>
       </c>
       <c r="H81" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7591,13 +7579,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G82" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H82" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7620,10 +7608,10 @@
         <v>1338</v>
       </c>
       <c r="G83" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H83" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7643,13 +7631,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G84" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H84" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7675,7 +7663,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7701,7 +7689,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7724,10 +7712,10 @@
         <v>1338</v>
       </c>
       <c r="G87" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H87" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7747,7 +7735,7 @@
         <v>1277</v>
       </c>
       <c r="H88" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7767,7 +7755,7 @@
         <v>1284</v>
       </c>
       <c r="H89" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7787,13 +7775,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G90" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="H90" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7813,13 +7801,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G91" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H91" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7845,7 +7833,7 @@
         <v>972</v>
       </c>
       <c r="H92" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7865,13 +7853,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G93" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H93" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7891,13 +7879,13 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G94" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H94" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7917,13 +7905,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G95" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H95" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7943,13 +7931,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G96" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H96" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7972,10 +7960,10 @@
         <v>1362</v>
       </c>
       <c r="G97" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="H97" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -7998,10 +7986,10 @@
         <v>1277</v>
       </c>
       <c r="G98" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="H98" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8024,10 +8012,10 @@
         <v>1277</v>
       </c>
       <c r="G99" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H99" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8047,7 +8035,7 @@
         <v>1275</v>
       </c>
       <c r="H100" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8070,10 +8058,10 @@
         <v>1277</v>
       </c>
       <c r="G101" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H101" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8093,13 +8081,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G102" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H102" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8122,10 +8110,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="H103" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8145,13 +8133,13 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G104" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="H104" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8171,13 +8159,13 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="G105" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H105" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8203,7 +8191,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8226,10 +8214,10 @@
         <v>1338</v>
       </c>
       <c r="G107" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H107" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8255,7 +8243,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8275,13 +8263,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G109" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H109" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8301,13 +8289,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1359</v>
+        <v>1369</v>
       </c>
       <c r="G110" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H110" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8327,13 +8315,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G111" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="H111" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8353,13 +8341,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G112" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="H112" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8379,13 +8367,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="H113" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8408,10 +8396,10 @@
         <v>1338</v>
       </c>
       <c r="G114" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H114" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8434,10 +8422,10 @@
         <v>1284</v>
       </c>
       <c r="G115" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H115" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8460,10 +8448,10 @@
         <v>1370</v>
       </c>
       <c r="G116" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="H116" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8489,7 +8477,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8509,13 +8497,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1360</v>
+        <v>1371</v>
       </c>
       <c r="G118" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="H118" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8535,13 +8523,13 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="G119" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H119" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8561,13 +8549,13 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G120" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="H120" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8587,13 +8575,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G121" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="H121" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8613,13 +8601,13 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G122" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="H122" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8645,7 +8633,7 @@
         <v>972</v>
       </c>
       <c r="H123" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8671,7 +8659,7 @@
         <v>952</v>
       </c>
       <c r="H124" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8697,7 +8685,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8723,7 +8711,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8746,10 +8734,10 @@
         <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H127" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8769,7 +8757,7 @@
         <v>1277</v>
       </c>
       <c r="H128" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8795,7 +8783,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8818,10 +8806,10 @@
         <v>1277</v>
       </c>
       <c r="G130" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="H130" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8841,13 +8829,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="G131" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H131" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8867,13 +8855,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G132" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H132" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8893,13 +8881,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G133" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H133" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8919,13 +8907,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1370</v>
+        <v>1339</v>
       </c>
       <c r="G134" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H134" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8948,10 +8936,10 @@
         <v>1373</v>
       </c>
       <c r="G135" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H135" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8974,10 +8962,10 @@
         <v>1374</v>
       </c>
       <c r="G136" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H136" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8997,13 +8985,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="G137" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H137" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9026,10 +9014,10 @@
         <v>1370</v>
       </c>
       <c r="G138" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="H138" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9052,10 +9040,10 @@
         <v>1370</v>
       </c>
       <c r="G139" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H139" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9078,10 +9066,10 @@
         <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H140" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9101,13 +9089,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G141" t="s">
         <v>972</v>
       </c>
       <c r="H141" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9127,13 +9115,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G142" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H142" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9153,13 +9141,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="G143" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H143" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9179,13 +9167,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G144" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="H144" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9208,10 +9196,10 @@
         <v>1338</v>
       </c>
       <c r="G145" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H145" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9231,7 +9219,7 @@
         <v>1277</v>
       </c>
       <c r="H146" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9251,7 +9239,7 @@
         <v>1277</v>
       </c>
       <c r="H147" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9271,13 +9259,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G148" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H148" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9300,10 +9288,10 @@
         <v>1277</v>
       </c>
       <c r="G149" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H149" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9329,7 +9317,7 @@
         <v>993</v>
       </c>
       <c r="H150" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9352,10 +9340,10 @@
         <v>1375</v>
       </c>
       <c r="G151" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="H151" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9381,7 +9369,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9404,10 +9392,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="H153" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9427,7 +9415,7 @@
         <v>1276</v>
       </c>
       <c r="H154" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9450,10 +9438,10 @@
         <v>1376</v>
       </c>
       <c r="G155" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="H155" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9479,7 +9467,7 @@
         <v>1000</v>
       </c>
       <c r="H156" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9502,10 +9490,10 @@
         <v>1277</v>
       </c>
       <c r="G157" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H157" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9528,10 +9516,10 @@
         <v>1377</v>
       </c>
       <c r="G158" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="H158" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9551,13 +9539,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G159" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="H159" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9577,7 +9565,7 @@
         <v>1277</v>
       </c>
       <c r="H160" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9600,10 +9588,10 @@
         <v>1338</v>
       </c>
       <c r="G161" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="H161" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9626,10 +9614,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="H162" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9652,10 +9640,10 @@
         <v>1277</v>
       </c>
       <c r="G163" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H163" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9675,13 +9663,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="G164" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="H164" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9704,10 +9692,10 @@
         <v>1378</v>
       </c>
       <c r="G165" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="H165" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9727,7 +9715,7 @@
         <v>1277</v>
       </c>
       <c r="H166" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9747,13 +9735,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="G167" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="H167" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9773,7 +9761,7 @@
         <v>1277</v>
       </c>
       <c r="H168" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9793,13 +9781,13 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G169" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="H169" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9822,10 +9810,10 @@
         <v>1379</v>
       </c>
       <c r="G170" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="H170" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9848,10 +9836,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="H171" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9874,10 +9862,10 @@
         <v>1338</v>
       </c>
       <c r="G172" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="H172" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9900,10 +9888,10 @@
         <v>1380</v>
       </c>
       <c r="G173" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="H173" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9923,13 +9911,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="G174" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="H174" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9952,10 +9940,10 @@
         <v>1379</v>
       </c>
       <c r="G175" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="H175" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -9978,10 +9966,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H176" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10004,10 +9992,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="H177" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10030,10 +10018,10 @@
         <v>1338</v>
       </c>
       <c r="G178" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="H178" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10056,10 +10044,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H179" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10082,10 +10070,10 @@
         <v>1381</v>
       </c>
       <c r="G180" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="H180" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10105,13 +10093,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="G181" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="H181" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10131,13 +10119,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G182" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="H182" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10157,13 +10145,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G183" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="H183" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10183,13 +10171,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G184" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="H184" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10209,13 +10197,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G185" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="H185" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10235,13 +10223,13 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="G186" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="H186" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10267,7 +10255,7 @@
         <v>993</v>
       </c>
       <c r="H187" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10290,10 +10278,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="H188" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10313,7 +10301,7 @@
         <v>1277</v>
       </c>
       <c r="H189" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10333,13 +10321,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G190" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="H190" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10362,10 +10350,10 @@
         <v>1370</v>
       </c>
       <c r="G191" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="H191" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10388,10 +10376,10 @@
         <v>1338</v>
       </c>
       <c r="G192" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H192" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10417,7 +10405,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10437,13 +10425,13 @@
         <v>1299</v>
       </c>
       <c r="F194" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G194" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="H194" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10469,7 +10457,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10492,10 +10480,10 @@
         <v>1338</v>
       </c>
       <c r="G196" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="H196" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10518,10 +10506,10 @@
         <v>1361</v>
       </c>
       <c r="G197" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="H197" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10541,13 +10529,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G198" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="H198" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10567,7 +10555,7 @@
         <v>1277</v>
       </c>
       <c r="H199" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10593,7 +10581,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10616,10 +10604,10 @@
         <v>1370</v>
       </c>
       <c r="G201" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="H201" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10645,7 +10633,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10668,10 +10656,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H203" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10697,7 +10685,7 @@
         <v>1004</v>
       </c>
       <c r="H204" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10717,13 +10705,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G205" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="H205" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10746,10 +10734,10 @@
         <v>1370</v>
       </c>
       <c r="G206" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="H206" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10769,13 +10757,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G207" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="H207" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10801,7 +10789,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10821,13 +10809,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G209" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="H209" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10850,10 +10838,10 @@
         <v>1277</v>
       </c>
       <c r="G210" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="H210" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10873,13 +10861,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G211" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="H211" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10905,7 +10893,7 @@
         <v>952</v>
       </c>
       <c r="H212" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10928,10 +10916,10 @@
         <v>1338</v>
       </c>
       <c r="G213" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="H213" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10957,7 +10945,7 @@
         <v>1050</v>
       </c>
       <c r="H214" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10977,7 +10965,7 @@
         <v>1277</v>
       </c>
       <c r="H215" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -10997,13 +10985,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G216" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="H216" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11023,7 +11011,7 @@
         <v>1277</v>
       </c>
       <c r="H217" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11046,10 +11034,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H218" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11072,10 +11060,10 @@
         <v>1362</v>
       </c>
       <c r="G219" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="H219" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11095,7 +11083,7 @@
         <v>1277</v>
       </c>
       <c r="H220" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11115,13 +11103,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G221" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="H221" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11144,10 +11132,10 @@
         <v>1284</v>
       </c>
       <c r="G222" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H222" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11167,13 +11155,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G223" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="H223" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11199,7 +11187,7 @@
         <v>952</v>
       </c>
       <c r="H224" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11219,13 +11207,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G225" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="H225" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11245,13 +11233,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G226" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="H226" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11271,13 +11259,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G227" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="H227" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11300,10 +11288,10 @@
         <v>1378</v>
       </c>
       <c r="G228" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="H228" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11329,7 +11317,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11355,7 +11343,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11381,7 +11369,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11404,10 +11392,10 @@
         <v>1370</v>
       </c>
       <c r="G232" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="H232" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11427,13 +11415,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G233" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="H233" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11456,10 +11444,10 @@
         <v>1293</v>
       </c>
       <c r="G234" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H234" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11485,7 +11473,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11505,7 +11493,7 @@
         <v>1275</v>
       </c>
       <c r="H236" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11528,10 +11516,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H237" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11551,7 +11539,7 @@
         <v>1284</v>
       </c>
       <c r="H238" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11571,13 +11559,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1397</v>
+        <v>1341</v>
       </c>
       <c r="G239" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="H239" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11597,13 +11585,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G240" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="H240" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11629,7 +11617,7 @@
         <v>935</v>
       </c>
       <c r="H241" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11649,13 +11637,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G242" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="H242" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11681,7 +11669,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11707,7 +11695,7 @@
         <v>972</v>
       </c>
       <c r="H244" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11727,13 +11715,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G245" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H245" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11753,7 +11741,7 @@
         <v>1284</v>
       </c>
       <c r="H246" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11773,13 +11761,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="G247" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H247" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11799,13 +11787,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G248" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="H248" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11825,13 +11813,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1343</v>
+        <v>1386</v>
       </c>
       <c r="G249" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="H249" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11851,13 +11839,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="G250" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="H250" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11883,7 +11871,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -11909,7 +11897,7 @@
         <v>989</v>
       </c>
       <c r="H252" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -11935,7 +11923,7 @@
         <v>989</v>
       </c>
       <c r="H253" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -11955,13 +11943,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="G254" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="H254" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -11984,10 +11972,10 @@
         <v>1277</v>
       </c>
       <c r="G255" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="H255" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12007,13 +11995,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1397</v>
+        <v>1341</v>
       </c>
       <c r="G256" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="H256" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12033,13 +12021,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G257" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="H257" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12059,13 +12047,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G258" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="H258" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12091,7 +12079,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12114,10 +12102,10 @@
         <v>1338</v>
       </c>
       <c r="G260" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="H260" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12140,10 +12128,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H261" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12163,13 +12151,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G262" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="H262" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12192,10 +12180,10 @@
         <v>1277</v>
       </c>
       <c r="G263" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H263" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12221,7 +12209,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12244,10 +12232,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H265" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12267,7 +12255,7 @@
         <v>1284</v>
       </c>
       <c r="H266" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12287,13 +12275,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12313,13 +12301,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G268" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="H268" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12339,13 +12327,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1405</v>
+        <v>1336</v>
       </c>
       <c r="G269" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="H269" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12365,13 +12353,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G270" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="H270" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12391,13 +12379,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1406</v>
+        <v>1368</v>
       </c>
       <c r="G271" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="H271" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12417,13 +12405,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="G272" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="H272" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12443,13 +12431,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G273" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="H273" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12469,13 +12457,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1359</v>
+        <v>1369</v>
       </c>
       <c r="G274" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="H274" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12501,7 +12489,7 @@
         <v>989</v>
       </c>
       <c r="H275" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12521,13 +12509,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="G276" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H276" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12550,10 +12538,10 @@
         <v>1277</v>
       </c>
       <c r="G277" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H277" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12573,13 +12561,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G278" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H278" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12599,13 +12587,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G279" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="H279" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12625,13 +12613,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="G280" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="H280" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12651,13 +12639,13 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G281" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="H281" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12680,10 +12668,10 @@
         <v>1284</v>
       </c>
       <c r="G282" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H282" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12703,13 +12691,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G283" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="H283" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12729,13 +12717,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G284" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H284" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12761,7 +12749,7 @@
         <v>1228</v>
       </c>
       <c r="H285" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12787,7 +12775,7 @@
         <v>989</v>
       </c>
       <c r="H286" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12807,13 +12795,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="G287" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="H287" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12839,7 +12827,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12865,7 +12853,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12885,13 +12873,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="G290" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="H290" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12911,13 +12899,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1359</v>
+        <v>1369</v>
       </c>
       <c r="G291" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="H291" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -12937,7 +12925,7 @@
         <v>1275</v>
       </c>
       <c r="H292" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12957,13 +12945,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G293" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="H293" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -12986,10 +12974,10 @@
         <v>1338</v>
       </c>
       <c r="G294" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="H294" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13012,10 +13000,10 @@
         <v>1277</v>
       </c>
       <c r="G295" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="H295" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13035,13 +13023,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G296" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="H296" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13061,13 +13049,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G297" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="H297" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13087,13 +13075,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G298" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="H298" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13116,10 +13104,10 @@
         <v>1284</v>
       </c>
       <c r="G299" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="H299" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13142,10 +13130,10 @@
         <v>1370</v>
       </c>
       <c r="G300" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="H300" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13171,7 +13159,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13191,13 +13179,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="G302" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H302" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13217,7 +13205,7 @@
         <v>1284</v>
       </c>
       <c r="H303" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13237,13 +13225,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="G304" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="H304" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13263,13 +13251,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G305" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="H305" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13289,13 +13277,13 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G306" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H306" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13315,13 +13303,13 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1370</v>
+        <v>1339</v>
       </c>
       <c r="G307" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="H307" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13341,13 +13329,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="G308" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="H308" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13373,7 +13361,7 @@
         <v>989</v>
       </c>
       <c r="H309" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13399,7 +13387,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13425,7 +13413,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13445,13 +13433,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G312" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="H312" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13477,7 +13465,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13500,10 +13488,10 @@
         <v>1293</v>
       </c>
       <c r="G314" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H314" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13529,7 +13517,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13555,7 +13543,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13581,7 +13569,7 @@
         <v>972</v>
       </c>
       <c r="H317" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13604,10 +13592,10 @@
         <v>1370</v>
       </c>
       <c r="G318" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="H318" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13633,7 +13621,7 @@
         <v>952</v>
       </c>
       <c r="H319" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13659,7 +13647,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13679,13 +13667,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="G321" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="H321" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13705,7 +13693,7 @@
         <v>1275</v>
       </c>
       <c r="H322" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13725,13 +13713,13 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G323" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H323" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13754,10 +13742,10 @@
         <v>1338</v>
       </c>
       <c r="G324" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="H324" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13777,7 +13765,7 @@
         <v>1284</v>
       </c>
       <c r="H325" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13800,10 +13788,10 @@
         <v>1370</v>
       </c>
       <c r="G326" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="H326" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13826,10 +13814,10 @@
         <v>1370</v>
       </c>
       <c r="G327" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="H327" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13849,13 +13837,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1412</v>
+        <v>1349</v>
       </c>
       <c r="G328" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="H328" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13875,13 +13863,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G329" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="H329" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -13901,13 +13889,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G330" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H330" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -13933,7 +13921,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -13959,7 +13947,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -13979,13 +13967,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G333" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="H333" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14005,13 +13993,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="G334" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="H334" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14034,10 +14022,10 @@
         <v>1370</v>
       </c>
       <c r="G335" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="H335" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14060,10 +14048,10 @@
         <v>1277</v>
       </c>
       <c r="G336" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="H336" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14083,13 +14071,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="G337" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="H337" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14112,10 +14100,10 @@
         <v>1284</v>
       </c>
       <c r="G338" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H338" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14135,13 +14123,13 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="G339" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="H339" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14161,7 +14149,7 @@
         <v>1284</v>
       </c>
       <c r="H340" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14181,13 +14169,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="G341" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="H341" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14207,13 +14195,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="G342" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="H342" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14233,13 +14221,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1417</v>
+        <v>1361</v>
       </c>
       <c r="G343" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="H343" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14259,13 +14247,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="G344" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="H344" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14288,10 +14276,10 @@
         <v>1361</v>
       </c>
       <c r="G345" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="H345" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14311,7 +14299,7 @@
         <v>1275</v>
       </c>
       <c r="H346" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14331,13 +14319,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G347" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="H347" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14357,13 +14345,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G348" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="H348" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14383,13 +14371,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="G349" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="H349" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14409,13 +14397,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="G350" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="H350" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14435,13 +14423,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="G351" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="H351" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14461,13 +14449,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G352" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="H352" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14493,7 +14481,7 @@
         <v>952</v>
       </c>
       <c r="H353" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14519,7 +14507,7 @@
         <v>989</v>
       </c>
       <c r="H354" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14545,7 +14533,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14565,13 +14553,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1359</v>
+        <v>1386</v>
       </c>
       <c r="G356" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="H356" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14591,13 +14579,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G357" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="H357" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14617,7 +14605,7 @@
         <v>1321</v>
       </c>
       <c r="H358" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14643,7 +14631,7 @@
         <v>972</v>
       </c>
       <c r="H359" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14663,7 +14651,7 @@
         <v>1284</v>
       </c>
       <c r="H360" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14683,13 +14671,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="G361" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="H361" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14709,7 +14697,7 @@
         <v>1297</v>
       </c>
       <c r="H362" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14735,7 +14723,7 @@
         <v>989</v>
       </c>
       <c r="H363" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14755,13 +14743,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="G364" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H364" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -14784,10 +14772,10 @@
         <v>1277</v>
       </c>
       <c r="G365" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="H365" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -14807,13 +14795,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="G366" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="H366" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14833,13 +14821,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G367" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="H367" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -14859,13 +14847,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="G368" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="H368" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -14885,13 +14873,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1406</v>
+        <v>1417</v>
       </c>
       <c r="G369" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="H369" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -14917,7 +14905,7 @@
         <v>1119</v>
       </c>
       <c r="H370" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -14940,10 +14928,10 @@
         <v>1338</v>
       </c>
       <c r="G371" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H371" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -14966,10 +14954,10 @@
         <v>1370</v>
       </c>
       <c r="G372" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="H372" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -14989,13 +14977,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1418</v>
       </c>
       <c r="G373" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="H373" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15015,7 +15003,7 @@
         <v>1284</v>
       </c>
       <c r="H374" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15035,7 +15023,7 @@
         <v>1278</v>
       </c>
       <c r="H375" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15055,7 +15043,7 @@
         <v>1284</v>
       </c>
       <c r="H376" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15075,7 +15063,7 @@
         <v>1284</v>
       </c>
       <c r="H377" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15095,7 +15083,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15121,7 +15109,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15141,13 +15129,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="G380" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="H380" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15167,13 +15155,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G381" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="H381" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15193,7 +15181,7 @@
         <v>1284</v>
       </c>
       <c r="H382" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15213,13 +15201,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="G383" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="H383" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15242,10 +15230,10 @@
         <v>1370</v>
       </c>
       <c r="G384" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="H384" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15268,10 +15256,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H385" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15291,13 +15279,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="G386" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="H386" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15317,13 +15305,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G387" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="H387" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15343,13 +15331,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G388" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="H388" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15369,13 +15357,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G389" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H389" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15395,13 +15383,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G390" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="H390" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15427,7 +15415,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15450,10 +15438,10 @@
         <v>1370</v>
       </c>
       <c r="G392" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="H392" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15476,10 +15464,10 @@
         <v>1370</v>
       </c>
       <c r="G393" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="H393" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15502,10 +15490,10 @@
         <v>1277</v>
       </c>
       <c r="G394" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H394" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15528,10 +15516,10 @@
         <v>1370</v>
       </c>
       <c r="G395" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="H395" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15554,10 +15542,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H396" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15577,13 +15565,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1353</v>
+        <v>1425</v>
       </c>
       <c r="G397" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="H397" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15603,13 +15591,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="G398" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H398" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15629,13 +15617,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G399" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="H399" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15658,10 +15646,10 @@
         <v>1370</v>
       </c>
       <c r="G400" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="H400" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15681,13 +15669,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G401" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="H401" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15710,10 +15698,10 @@
         <v>1370</v>
       </c>
       <c r="G402" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="H402" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15733,13 +15721,13 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G403" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="H403" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -15759,13 +15747,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="G404" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="H404" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15791,7 +15779,7 @@
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15817,7 +15805,7 @@
         <v>1228</v>
       </c>
       <c r="H406" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -15837,13 +15825,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="G407" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="H407" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -15863,7 +15851,7 @@
         <v>1278</v>
       </c>
       <c r="H408" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -15883,13 +15871,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="G409" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="H409" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -15915,7 +15903,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -15935,7 +15923,7 @@
         <v>1293</v>
       </c>
       <c r="H411" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -15958,10 +15946,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="H412" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -15981,13 +15969,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16007,7 +15995,7 @@
         <v>1284</v>
       </c>
       <c r="H414" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16027,13 +16015,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G415" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="H415" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16053,13 +16041,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H416" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16079,13 +16067,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G417" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H417" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16105,7 +16093,7 @@
         <v>1284</v>
       </c>
       <c r="H418" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16128,10 +16116,10 @@
         <v>1379</v>
       </c>
       <c r="G419" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="H419" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16154,10 +16142,10 @@
         <v>1284</v>
       </c>
       <c r="G420" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H420" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16180,10 +16168,10 @@
         <v>1284</v>
       </c>
       <c r="G421" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="H421" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16203,13 +16191,13 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G422" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="H422" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16229,13 +16217,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G423" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H423" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16255,7 +16243,7 @@
         <v>1284</v>
       </c>
       <c r="H424" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16275,13 +16263,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1365</v>
+        <v>1378</v>
       </c>
       <c r="G425" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H425" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16301,13 +16289,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G426" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H426" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16333,7 +16321,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16353,7 +16341,7 @@
         <v>1284</v>
       </c>
       <c r="H428" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16376,10 +16364,10 @@
         <v>1378</v>
       </c>
       <c r="G429" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="H429" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16399,13 +16387,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G430" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="H430" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16431,7 +16419,7 @@
         <v>1119</v>
       </c>
       <c r="H431" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16454,10 +16442,10 @@
         <v>1293</v>
       </c>
       <c r="G432" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H432" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16477,13 +16465,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G433" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="H433" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16503,13 +16491,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1382</v>
+        <v>1418</v>
       </c>
       <c r="G434" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="H434" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16529,7 +16517,7 @@
         <v>1296</v>
       </c>
       <c r="H435" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16555,7 +16543,7 @@
         <v>1093</v>
       </c>
       <c r="H436" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16575,13 +16563,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="G437" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="H437" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16604,10 +16592,10 @@
         <v>1338</v>
       </c>
       <c r="G438" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H438" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16627,7 +16615,7 @@
         <v>1284</v>
       </c>
       <c r="H439" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16653,7 +16641,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16676,10 +16664,10 @@
         <v>1284</v>
       </c>
       <c r="G441" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="H441" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -16705,7 +16693,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16725,7 +16713,7 @@
         <v>1278</v>
       </c>
       <c r="H443" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16748,10 +16736,10 @@
         <v>1338</v>
       </c>
       <c r="G444" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="H444" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -16771,13 +16759,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G445" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="H445" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -16797,13 +16785,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G446" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="H446" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -16829,7 +16817,7 @@
         <v>972</v>
       </c>
       <c r="H447" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -16849,13 +16837,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G448" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="H448" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -16875,13 +16863,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="G449" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="H449" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -16901,13 +16889,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1363</v>
+        <v>1339</v>
       </c>
       <c r="G450" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H450" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -16930,10 +16918,10 @@
         <v>1293</v>
       </c>
       <c r="G451" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="H451" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -16953,13 +16941,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1382</v>
+        <v>1418</v>
       </c>
       <c r="G452" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="H452" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -16979,7 +16967,7 @@
         <v>1293</v>
       </c>
       <c r="H453" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17005,7 +16993,7 @@
         <v>1004</v>
       </c>
       <c r="H454" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17025,13 +17013,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G455" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H455" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17051,13 +17039,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1343</v>
+        <v>1386</v>
       </c>
       <c r="G456" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="H456" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17077,13 +17065,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="G457" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="H457" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17103,13 +17091,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G458" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="H458" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17135,7 +17123,7 @@
         <v>972</v>
       </c>
       <c r="H459" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17161,7 +17149,7 @@
         <v>1119</v>
       </c>
       <c r="H460" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17181,13 +17169,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G461" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="H461" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17213,7 +17201,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17233,13 +17221,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1406</v>
+        <v>1417</v>
       </c>
       <c r="G463" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="H463" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17265,7 +17253,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17288,10 +17276,10 @@
         <v>1277</v>
       </c>
       <c r="G465" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H465" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
